--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H2">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>332.0293038031551</v>
+        <v>723.5476553920694</v>
       </c>
       <c r="R2">
-        <v>332.0293038031551</v>
+        <v>6511.928898528625</v>
       </c>
       <c r="S2">
-        <v>0.006476050639677189</v>
+        <v>0.01252631910473241</v>
       </c>
       <c r="T2">
-        <v>0.006476050639677189</v>
+        <v>0.01252631910473241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H3">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I3">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J3">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>611.3074132461013</v>
+        <v>1191.982663629205</v>
       </c>
       <c r="R3">
-        <v>611.3074132461013</v>
+        <v>10727.84397266285</v>
       </c>
       <c r="S3">
-        <v>0.01192321797879276</v>
+        <v>0.0206360356510831</v>
       </c>
       <c r="T3">
-        <v>0.01192321797879276</v>
+        <v>0.0206360356510831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H4">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I4">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J4">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>232.0802068136014</v>
+        <v>478.2088556103824</v>
       </c>
       <c r="R4">
-        <v>232.0802068136014</v>
+        <v>4303.879700493441</v>
       </c>
       <c r="S4">
-        <v>0.004526597967638048</v>
+        <v>0.008278924932509996</v>
       </c>
       <c r="T4">
-        <v>0.004526597967638048</v>
+        <v>0.008278924932509998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H5">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I5">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J5">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>526.7353241185348</v>
+        <v>1054.994440897542</v>
       </c>
       <c r="R5">
-        <v>526.7353241185348</v>
+        <v>9494.949968077881</v>
       </c>
       <c r="S5">
-        <v>0.01027368546578868</v>
+        <v>0.01826444591716691</v>
       </c>
       <c r="T5">
-        <v>0.01027368546578868</v>
+        <v>0.01826444591716691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H6">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I6">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J6">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>2624.382630368268</v>
+        <v>2936.957704437971</v>
       </c>
       <c r="R6">
-        <v>2624.382630368268</v>
+        <v>26432.61933994174</v>
       </c>
       <c r="S6">
-        <v>0.05118715311414218</v>
+        <v>0.05084567564932176</v>
       </c>
       <c r="T6">
-        <v>0.05118715311414218</v>
+        <v>0.05084567564932176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H7">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I7">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J7">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>4831.816164303208</v>
+        <v>4838.385753050786</v>
       </c>
       <c r="R7">
-        <v>4831.816164303208</v>
+        <v>43545.47177745707</v>
       </c>
       <c r="S7">
-        <v>0.09424194130825701</v>
+        <v>0.08376388679148425</v>
       </c>
       <c r="T7">
-        <v>0.09424194130825701</v>
+        <v>0.08376388679148425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H8">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I8">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J8">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>1834.378040243637</v>
+        <v>1941.101145652018</v>
       </c>
       <c r="R8">
-        <v>1834.378040243637</v>
+        <v>17469.91031086816</v>
       </c>
       <c r="S8">
-        <v>0.03577854407685782</v>
+        <v>0.03360504616910594</v>
       </c>
       <c r="T8">
-        <v>0.03577854407685782</v>
+        <v>0.03360504616910594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H9">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I9">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J9">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>4163.352510107413</v>
+        <v>4282.335832674758</v>
       </c>
       <c r="R9">
-        <v>4163.352510107413</v>
+        <v>38541.02249407282</v>
       </c>
       <c r="S9">
-        <v>0.08120392199559388</v>
+        <v>0.07413734914896103</v>
       </c>
       <c r="T9">
-        <v>0.08120392199559388</v>
+        <v>0.07413734914896104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H10">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I10">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J10">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>654.4980503211648</v>
+        <v>1094.816278794179</v>
       </c>
       <c r="R10">
-        <v>654.4980503211648</v>
+        <v>9853.346509147608</v>
       </c>
       <c r="S10">
-        <v>0.01276562781929243</v>
+        <v>0.01895385599971343</v>
       </c>
       <c r="T10">
-        <v>0.01276562781929243</v>
+        <v>0.01895385599971344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H11">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I11">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J11">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>1205.012646575462</v>
+        <v>1803.615856476733</v>
       </c>
       <c r="R11">
-        <v>1205.012646575462</v>
+        <v>16232.5427082906</v>
       </c>
       <c r="S11">
-        <v>0.02350311503017394</v>
+        <v>0.03122485104086267</v>
       </c>
       <c r="T11">
-        <v>0.02350311503017394</v>
+        <v>0.03122485104086268</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H12">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I12">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J12">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>457.4778224023474</v>
+        <v>723.5886066164979</v>
       </c>
       <c r="R12">
-        <v>457.4778224023474</v>
+        <v>6512.297459548481</v>
       </c>
       <c r="S12">
-        <v>0.008922855634945007</v>
+        <v>0.0125270280671637</v>
       </c>
       <c r="T12">
-        <v>0.008922855634945007</v>
+        <v>0.0125270280671637</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H13">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I13">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J13">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>1038.303663929774</v>
+        <v>1596.335886550718</v>
       </c>
       <c r="R13">
-        <v>1038.303663929774</v>
+        <v>14367.02297895646</v>
       </c>
       <c r="S13">
-        <v>0.02025154716752951</v>
+        <v>0.02763634511735766</v>
       </c>
       <c r="T13">
-        <v>0.02025154716752951</v>
+        <v>0.02763634511735767</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H14">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I14">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J14">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>6390.107598037907</v>
+        <v>7363.242335841726</v>
       </c>
       <c r="R14">
-        <v>6390.107598037907</v>
+        <v>66269.18102257553</v>
       </c>
       <c r="S14">
-        <v>0.124635566571598</v>
+        <v>0.127475118545232</v>
       </c>
       <c r="T14">
-        <v>0.124635566571598</v>
+        <v>0.127475118545232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H15">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I15">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J15">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>11764.9861062766</v>
+        <v>12130.30979648193</v>
       </c>
       <c r="R15">
-        <v>11764.9861062766</v>
+        <v>109172.7881683374</v>
       </c>
       <c r="S15">
-        <v>0.2294696429701751</v>
+        <v>0.210004317224493</v>
       </c>
       <c r="T15">
-        <v>0.2294696429701751</v>
+        <v>0.210004317224493</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H16">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I16">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J16">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>4466.525923847421</v>
+        <v>4866.531823804712</v>
       </c>
       <c r="R16">
-        <v>4466.525923847421</v>
+        <v>43798.78641424241</v>
       </c>
       <c r="S16">
-        <v>0.08711715422387963</v>
+        <v>0.08425116176387983</v>
       </c>
       <c r="T16">
-        <v>0.08711715422387963</v>
+        <v>0.08425116176387984</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H17">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I17">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J17">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>10137.34437970057</v>
+        <v>10736.23785994456</v>
       </c>
       <c r="R17">
-        <v>10137.34437970057</v>
+        <v>96626.14073950106</v>
       </c>
       <c r="S17">
-        <v>0.1977233780356589</v>
+        <v>0.1858696388769322</v>
       </c>
       <c r="T17">
-        <v>0.1977233780356589</v>
+        <v>0.1858696388769323</v>
       </c>
     </row>
   </sheetData>
